--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U1U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U1U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A0326C-4FD3-47F7-AEEA-43EB2E0C6E75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB29A66-8782-44BF-915D-6AEB3616F950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>Channel</t>
   </si>
@@ -1574,7 +1574,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1646,8 +1646,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1740,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>111</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>112</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>113</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>117</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>118</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
